--- a/xlsx/假设_intext.xlsx
+++ b/xlsx/假设_intext.xlsx
@@ -29,7 +29,7 @@
     <t>现象</t>
   </si>
   <si>
-    <t>政策_政策_政治學_假设</t>
+    <t>政策_政策_政治学_假设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E7%BA%8C%E7%B5%B1%E5%81%87%E8%A8%AD</t>
   </si>
   <si>
-    <t>連續統假設</t>
+    <t>连续统假设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%A4%AA</t>
@@ -137,37 +137,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%B9%E7%BE%A9%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>狹義相對論</t>
+    <t>狭义相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%9C%89%E5%BC%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>萬有引力</t>
+    <t>万有引力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8D%E6%AD%B7%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>遍歷理論</t>
+    <t>遍历理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E9%A0%93%E9%81%8B%E5%8B%95%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>牛頓運動定律</t>
+    <t>牛顿运动定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%97%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>暗物質</t>
+    <t>暗物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%88%86%E7%82%B8%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>大爆炸理論</t>
+    <t>大爆炸理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83</t>
@@ -179,37 +179,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BD%9B%E5%8A%A0%E5%8E%A5%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>亞佛加厥定律</t>
+    <t>亚佛加厥定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%9F%E6%BA%90%E8%AB%96</t>
   </si>
   <si>
-    <t>無生源論</t>
+    <t>无生源论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%BD%E8%AE%8A%E8%AB%96</t>
   </si>
   <si>
-    <t>災變論</t>
+    <t>灾变论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E8%AE%8A%E8%AB%96</t>
   </si>
   <si>
-    <t>均變論</t>
+    <t>均变论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A6%AC%E5%85%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>拉馬克主義</t>
+    <t>拉马克主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>自然選擇</t>
+    <t>自然选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%92U%E6%9B%B2%E7%BA%BF</t>
